--- a/Bank/BankData.xlsx
+++ b/Bank/BankData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdbb21a5dbde31e1/Documents/UVic/CSC 370/Database Project/Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54ACC7F1-E50F-4084-B75C-D306EACA78EE}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738886CA-2C8A-4F7E-B699-18787AE5989C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Bank_Num</t>
-  </si>
-  <si>
     <t>Num_Clients</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>Victoria</t>
+  </si>
+  <si>
+    <t>Branch_Num</t>
   </si>
 </sst>
 </file>
@@ -92,6 +92,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,36 +364,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
         <v>20240519</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
